--- a/0_1_Output_Data/1_Evaluation_series/latest_release_yoy_GDP.xlsx
+++ b/0_1_Output_Data/1_Evaluation_series/latest_release_yoy_GDP.xlsx
@@ -1,40 +1,54 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -49,96 +63,38 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -426,280 +382,270 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>date</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>value</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="2">
         <v>34699</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>2.656359803232644</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
+    <row r="3" spans="1:2">
+      <c r="A3" s="2">
         <v>35064</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>1.577902519167562</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
+    <row r="4" spans="1:2">
+      <c r="A4" s="2">
         <v>35430</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>1.064797654749472</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
+    <row r="5" spans="1:2">
+      <c r="A5" s="2">
         <v>35795</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>1.937118661020909</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
+    <row r="6" spans="1:2">
+      <c r="A6" s="2">
         <v>36160</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>1.88395368613854</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
+    <row r="7" spans="1:2">
+      <c r="A7" s="2">
         <v>36525</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>1.983948635634003</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
+    <row r="8" spans="1:2">
+      <c r="A8" s="2">
         <v>36891</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>3.110047846889974</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
+    <row r="9" spans="1:2">
+      <c r="A9" s="2">
         <v>37256</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>1.749297838563924</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
+    <row r="10" spans="1:2">
+      <c r="A10" s="2">
         <v>37621</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>-0.1860241831437959</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
+    <row r="11" spans="1:2">
+      <c r="A11" s="2">
         <v>37986</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>-0.5440827246220303</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
+    <row r="12" spans="1:2">
+      <c r="A12" s="2">
         <v>38352</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>0.7042253521126973</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
+    <row r="13" spans="1:2">
+      <c r="A13" s="2">
         <v>38717</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13">
         <v>1.047450403673555</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
+    <row r="14" spans="1:2">
+      <c r="A14" s="2">
         <v>39082</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14">
         <v>4.045384341214242</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
+    <row r="15" spans="1:2">
+      <c r="A15" s="2">
         <v>39447</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15">
         <v>2.991721381672874</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
+    <row r="16" spans="1:2">
+      <c r="A16" s="2">
         <v>39813</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16">
         <v>0.6402793946449714</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
+    <row r="17" spans="1:2">
+      <c r="A17" s="2">
         <v>40178</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17">
         <v>-5.494505494505509</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
+    <row r="18" spans="1:2">
+      <c r="A18" s="2">
         <v>40543</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18">
         <v>4.007110800256442</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
+    <row r="19" spans="1:2">
+      <c r="A19" s="2">
         <v>40908</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19">
         <v>3.838717812211057</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
+    <row r="20" spans="1:2">
+      <c r="A20" s="2">
         <v>41274</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20">
         <v>0.6503143635824049</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
+    <row r="21" spans="1:2">
+      <c r="A21" s="2">
         <v>41639</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21">
         <v>0.5067024128686759</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
+    <row r="22" spans="1:2">
+      <c r="A22" s="2">
         <v>42004</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22">
         <v>2.168636133265789</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
+    <row r="23" spans="1:2">
+      <c r="A23" s="2">
         <v>42369</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23">
         <v>1.404626390266817</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
+    <row r="24" spans="1:2">
+      <c r="A24" s="2">
         <v>42735</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24">
         <v>2.21421215242017</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
+    <row r="25" spans="1:2">
+      <c r="A25" s="2">
         <v>43100</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B25">
         <v>3.002518891687656</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
+    <row r="26" spans="1:2">
+      <c r="A26" s="2">
         <v>43465</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B26">
         <v>1.13469627310967</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
+    <row r="27" spans="1:2">
+      <c r="A27" s="2">
         <v>43830</v>
       </c>
-      <c r="B27" t="n">
+      <c r="B27">
         <v>1.027662249734007</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
+    <row r="28" spans="1:2">
+      <c r="A28" s="2">
         <v>44196</v>
       </c>
-      <c r="B28" t="n">
+      <c r="B28">
         <v>-4.45657116871303</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
+    <row r="29" spans="1:2">
+      <c r="A29" s="2">
         <v>44561</v>
       </c>
-      <c r="B29" t="n">
+      <c r="B29">
         <v>3.624840301610766</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
+    <row r="30" spans="1:2">
+      <c r="A30" s="2">
         <v>44926</v>
       </c>
-      <c r="B30" t="n">
+      <c r="B30">
         <v>1.445631678189807</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
+    <row r="31" spans="1:2">
+      <c r="A31" s="2">
         <v>45291</v>
       </c>
-      <c r="B31" t="n">
+      <c r="B31">
         <v>-0.06434086359737856</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
+    <row r="32" spans="1:2">
+      <c r="A32" s="2">
         <v>45657</v>
       </c>
-      <c r="B32" t="n">
+      <c r="B32">
         <v>-0.2026849798507313</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/0_1_Output_Data/1_Evaluation_series/latest_release_yoy_GDP.xlsx
+++ b/0_1_Output_Data/1_Evaluation_series/latest_release_yoy_GDP.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B32"/>
+  <dimension ref="A1:B43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -399,249 +399,337 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2">
-        <v>34699</v>
+        <v>30681</v>
       </c>
       <c r="B2">
-        <v>2.656359803232644</v>
+        <v>1.466797881812631</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2">
-        <v>35064</v>
+        <v>31047</v>
       </c>
       <c r="B3">
-        <v>1.577902519167562</v>
+        <v>2.900424903011278</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2">
-        <v>35430</v>
+        <v>31412</v>
       </c>
       <c r="B4">
-        <v>1.064797654749472</v>
+        <v>2.60323159784559</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2">
-        <v>35795</v>
+        <v>31777</v>
       </c>
       <c r="B5">
-        <v>1.937118661020909</v>
+        <v>2.279090113735815</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2">
-        <v>36160</v>
+        <v>32142</v>
       </c>
       <c r="B6">
-        <v>1.88395368613854</v>
+        <v>1.278816132757399</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2">
-        <v>36525</v>
+        <v>32508</v>
       </c>
       <c r="B7">
-        <v>1.983948635634003</v>
+        <v>3.441722972972983</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2">
-        <v>36891</v>
+        <v>32873</v>
       </c>
       <c r="B8">
-        <v>3.110047846889974</v>
+        <v>4.033476219636634</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2">
-        <v>37256</v>
+        <v>33238</v>
       </c>
       <c r="B9">
-        <v>1.749297838563924</v>
+        <v>5.482086096613425</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2">
-        <v>37621</v>
+        <v>33603</v>
       </c>
       <c r="B10">
-        <v>-0.1860241831437959</v>
+        <v>5.2529761904762</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2">
-        <v>37986</v>
+        <v>33969</v>
       </c>
       <c r="B11">
-        <v>-0.5440827246220303</v>
+        <v>1.60115933832885</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2">
-        <v>38352</v>
+        <v>34334</v>
       </c>
       <c r="B12">
-        <v>0.7042253521126973</v>
+        <v>-0.9914767785701772</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2">
-        <v>38717</v>
+        <v>34699</v>
       </c>
       <c r="B13">
-        <v>1.047450403673555</v>
+        <v>2.656359803232644</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2">
-        <v>39082</v>
+        <v>35064</v>
       </c>
       <c r="B14">
-        <v>4.045384341214242</v>
+        <v>1.577902519167562</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2">
-        <v>39447</v>
+        <v>35430</v>
       </c>
       <c r="B15">
-        <v>2.991721381672874</v>
+        <v>1.064797654749472</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2">
-        <v>39813</v>
+        <v>35795</v>
       </c>
       <c r="B16">
-        <v>0.6402793946449714</v>
+        <v>1.937118661020909</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2">
-        <v>40178</v>
+        <v>36160</v>
       </c>
       <c r="B17">
-        <v>-5.494505494505509</v>
+        <v>1.88395368613854</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2">
-        <v>40543</v>
+        <v>36525</v>
       </c>
       <c r="B18">
-        <v>4.007110800256442</v>
+        <v>1.983948635634003</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2">
-        <v>40908</v>
+        <v>36891</v>
       </c>
       <c r="B19">
-        <v>3.838717812211057</v>
+        <v>3.110047846889974</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2">
-        <v>41274</v>
+        <v>37256</v>
       </c>
       <c r="B20">
-        <v>0.6503143635824049</v>
+        <v>1.749297838563924</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2">
-        <v>41639</v>
+        <v>37621</v>
       </c>
       <c r="B21">
-        <v>0.5067024128686759</v>
+        <v>-0.1860241831437959</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2">
-        <v>42004</v>
+        <v>37986</v>
       </c>
       <c r="B22">
-        <v>2.168636133265789</v>
+        <v>-0.5440827246220303</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2">
-        <v>42369</v>
+        <v>38352</v>
       </c>
       <c r="B23">
-        <v>1.404626390266817</v>
+        <v>0.7042253521126973</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="2">
-        <v>42735</v>
+        <v>38717</v>
       </c>
       <c r="B24">
-        <v>2.21421215242017</v>
+        <v>1.047450403673555</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="2">
-        <v>43100</v>
+        <v>39082</v>
       </c>
       <c r="B25">
-        <v>3.002518891687656</v>
+        <v>4.045384341214242</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2">
-        <v>43465</v>
+        <v>39447</v>
       </c>
       <c r="B26">
-        <v>1.13469627310967</v>
+        <v>2.991721381672874</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2">
-        <v>43830</v>
+        <v>39813</v>
       </c>
       <c r="B27">
-        <v>1.027662249734007</v>
+        <v>0.6402793946449714</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2">
-        <v>44196</v>
+        <v>40178</v>
       </c>
       <c r="B28">
-        <v>-4.45657116871303</v>
+        <v>-5.494505494505509</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2">
-        <v>44561</v>
+        <v>40543</v>
       </c>
       <c r="B29">
-        <v>3.624840301610766</v>
+        <v>4.007110800256442</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="2">
-        <v>44926</v>
+        <v>40908</v>
       </c>
       <c r="B30">
-        <v>1.445631678189807</v>
+        <v>3.838717812211057</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="2">
-        <v>45291</v>
+        <v>41274</v>
       </c>
       <c r="B31">
-        <v>-0.06434086359737856</v>
+        <v>0.6503143635824049</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="2">
+        <v>41639</v>
+      </c>
+      <c r="B32">
+        <v>0.5067024128686759</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="2">
+        <v>42004</v>
+      </c>
+      <c r="B33">
+        <v>2.168636133265789</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="2">
+        <v>42369</v>
+      </c>
+      <c r="B34">
+        <v>1.404626390266817</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="2">
+        <v>42735</v>
+      </c>
+      <c r="B35">
+        <v>2.21421215242017</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="2">
+        <v>43100</v>
+      </c>
+      <c r="B36">
+        <v>3.002518891687656</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="2">
+        <v>43465</v>
+      </c>
+      <c r="B37">
+        <v>1.13469627310967</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="B38">
+        <v>1.027662249734007</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="2">
+        <v>44196</v>
+      </c>
+      <c r="B39">
+        <v>-4.45657116871303</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="2">
+        <v>44561</v>
+      </c>
+      <c r="B40">
+        <v>3.624840301610766</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="2">
+        <v>44926</v>
+      </c>
+      <c r="B41">
+        <v>1.445631678189807</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="2">
+        <v>45291</v>
+      </c>
+      <c r="B42">
+        <v>-0.06434086359737856</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="2">
         <v>45657</v>
       </c>
-      <c r="B32">
+      <c r="B43">
         <v>-0.2026849798507313</v>
       </c>
     </row>

--- a/0_1_Output_Data/1_Evaluation_series/latest_release_yoy_GDP.xlsx
+++ b/0_1_Output_Data/1_Evaluation_series/latest_release_yoy_GDP.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B43"/>
+  <dimension ref="A1:B39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -399,337 +399,305 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2">
-        <v>30681</v>
+        <v>32142</v>
       </c>
       <c r="B2">
-        <v>1.466797881812631</v>
+        <v>1.278816132757399</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2">
-        <v>31047</v>
+        <v>32508</v>
       </c>
       <c r="B3">
-        <v>2.900424903011278</v>
+        <v>3.441722972972983</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2">
-        <v>31412</v>
+        <v>32873</v>
       </c>
       <c r="B4">
-        <v>2.60323159784559</v>
+        <v>4.033476219636634</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2">
-        <v>31777</v>
+        <v>33238</v>
       </c>
       <c r="B5">
-        <v>2.279090113735815</v>
+        <v>5.482086096613425</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2">
-        <v>32142</v>
+        <v>33603</v>
       </c>
       <c r="B6">
-        <v>1.278816132757399</v>
+        <v>5.2529761904762</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2">
-        <v>32508</v>
+        <v>33969</v>
       </c>
       <c r="B7">
-        <v>3.441722972972983</v>
+        <v>1.60115933832885</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2">
-        <v>32873</v>
+        <v>34334</v>
       </c>
       <c r="B8">
-        <v>4.033476219636634</v>
+        <v>-0.9914767785701772</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2">
-        <v>33238</v>
+        <v>34699</v>
       </c>
       <c r="B9">
-        <v>5.482086096613425</v>
+        <v>2.656359803232644</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2">
-        <v>33603</v>
+        <v>35064</v>
       </c>
       <c r="B10">
-        <v>5.2529761904762</v>
+        <v>1.577902519167562</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2">
-        <v>33969</v>
+        <v>35430</v>
       </c>
       <c r="B11">
-        <v>1.60115933832885</v>
+        <v>1.064797654749472</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2">
-        <v>34334</v>
+        <v>35795</v>
       </c>
       <c r="B12">
-        <v>-0.9914767785701772</v>
+        <v>1.937118661020909</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2">
-        <v>34699</v>
+        <v>36160</v>
       </c>
       <c r="B13">
-        <v>2.656359803232644</v>
+        <v>1.88395368613854</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2">
-        <v>35064</v>
+        <v>36525</v>
       </c>
       <c r="B14">
-        <v>1.577902519167562</v>
+        <v>1.983948635634003</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2">
-        <v>35430</v>
+        <v>36891</v>
       </c>
       <c r="B15">
-        <v>1.064797654749472</v>
+        <v>3.110047846889974</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2">
-        <v>35795</v>
+        <v>37256</v>
       </c>
       <c r="B16">
-        <v>1.937118661020909</v>
+        <v>1.749297838563924</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2">
-        <v>36160</v>
+        <v>37621</v>
       </c>
       <c r="B17">
-        <v>1.88395368613854</v>
+        <v>-0.1860241831437959</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2">
-        <v>36525</v>
+        <v>37986</v>
       </c>
       <c r="B18">
-        <v>1.983948635634003</v>
+        <v>-0.5440827246220303</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2">
-        <v>36891</v>
+        <v>38352</v>
       </c>
       <c r="B19">
-        <v>3.110047846889974</v>
+        <v>0.7042253521126973</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2">
-        <v>37256</v>
+        <v>38717</v>
       </c>
       <c r="B20">
-        <v>1.749297838563924</v>
+        <v>1.047450403673555</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2">
-        <v>37621</v>
+        <v>39082</v>
       </c>
       <c r="B21">
-        <v>-0.1860241831437959</v>
+        <v>4.045384341214242</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2">
-        <v>37986</v>
+        <v>39447</v>
       </c>
       <c r="B22">
-        <v>-0.5440827246220303</v>
+        <v>2.991721381672874</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2">
-        <v>38352</v>
+        <v>39813</v>
       </c>
       <c r="B23">
-        <v>0.7042253521126973</v>
+        <v>0.6402793946449714</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="2">
-        <v>38717</v>
+        <v>40178</v>
       </c>
       <c r="B24">
-        <v>1.047450403673555</v>
+        <v>-5.494505494505509</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="2">
-        <v>39082</v>
+        <v>40543</v>
       </c>
       <c r="B25">
-        <v>4.045384341214242</v>
+        <v>4.007110800256442</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2">
-        <v>39447</v>
+        <v>40908</v>
       </c>
       <c r="B26">
-        <v>2.991721381672874</v>
+        <v>3.838717812211057</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2">
-        <v>39813</v>
+        <v>41274</v>
       </c>
       <c r="B27">
-        <v>0.6402793946449714</v>
+        <v>0.6503143635824049</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2">
-        <v>40178</v>
+        <v>41639</v>
       </c>
       <c r="B28">
-        <v>-5.494505494505509</v>
+        <v>0.5067024128686759</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2">
-        <v>40543</v>
+        <v>42004</v>
       </c>
       <c r="B29">
-        <v>4.007110800256442</v>
+        <v>2.168636133265789</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="2">
-        <v>40908</v>
+        <v>42369</v>
       </c>
       <c r="B30">
-        <v>3.838717812211057</v>
+        <v>1.404626390266817</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="2">
-        <v>41274</v>
+        <v>42735</v>
       </c>
       <c r="B31">
-        <v>0.6503143635824049</v>
+        <v>2.21421215242017</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="2">
-        <v>41639</v>
+        <v>43100</v>
       </c>
       <c r="B32">
-        <v>0.5067024128686759</v>
+        <v>3.002518891687656</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="2">
-        <v>42004</v>
+        <v>43465</v>
       </c>
       <c r="B33">
-        <v>2.168636133265789</v>
+        <v>1.13469627310967</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="2">
-        <v>42369</v>
+        <v>43830</v>
       </c>
       <c r="B34">
-        <v>1.404626390266817</v>
+        <v>1.027662249734007</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="2">
-        <v>42735</v>
+        <v>44196</v>
       </c>
       <c r="B35">
-        <v>2.21421215242017</v>
+        <v>-4.45657116871303</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="2">
-        <v>43100</v>
+        <v>44561</v>
       </c>
       <c r="B36">
-        <v>3.002518891687656</v>
+        <v>3.624840301610766</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="2">
-        <v>43465</v>
+        <v>44926</v>
       </c>
       <c r="B37">
-        <v>1.13469627310967</v>
+        <v>1.445631678189807</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="2">
-        <v>43830</v>
+        <v>45291</v>
       </c>
       <c r="B38">
-        <v>1.027662249734007</v>
+        <v>-0.06434086359737856</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="2">
-        <v>44196</v>
+        <v>45657</v>
       </c>
       <c r="B39">
-        <v>-4.45657116871303</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" s="2">
-        <v>44561</v>
-      </c>
-      <c r="B40">
-        <v>3.624840301610766</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" s="2">
-        <v>44926</v>
-      </c>
-      <c r="B41">
-        <v>1.445631678189807</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" s="2">
-        <v>45291</v>
-      </c>
-      <c r="B42">
-        <v>-0.06434086359737856</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" s="2">
-        <v>45657</v>
-      </c>
-      <c r="B43">
         <v>-0.2026849798507313</v>
       </c>
     </row>

--- a/0_1_Output_Data/1_Evaluation_series/latest_release_yoy_GDP.xlsx
+++ b/0_1_Output_Data/1_Evaluation_series/latest_release_yoy_GDP.xlsx
@@ -402,7 +402,7 @@
         <v>32142</v>
       </c>
       <c r="B2">
-        <v>1.278816132757399</v>
+        <v>1.278816132757377</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -410,7 +410,7 @@
         <v>32508</v>
       </c>
       <c r="B3">
-        <v>3.441722972972983</v>
+        <v>3.441722972973005</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -418,7 +418,7 @@
         <v>32873</v>
       </c>
       <c r="B4">
-        <v>4.033476219636634</v>
+        <v>4.033476219636656</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -426,7 +426,7 @@
         <v>33238</v>
       </c>
       <c r="B5">
-        <v>5.482086096613425</v>
+        <v>5.482086096613403</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -434,7 +434,7 @@
         <v>33603</v>
       </c>
       <c r="B6">
-        <v>5.2529761904762</v>
+        <v>5.241851727627922</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -442,7 +442,7 @@
         <v>33969</v>
       </c>
       <c r="B7">
-        <v>1.60115933832885</v>
+        <v>1.590049821561079</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -450,7 +450,7 @@
         <v>34334</v>
       </c>
       <c r="B8">
-        <v>-0.9914767785701772</v>
+        <v>-0.9947480087649119</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -458,7 +458,7 @@
         <v>34699</v>
       </c>
       <c r="B9">
-        <v>2.656359803232644</v>
+        <v>2.662919374670669</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -466,7 +466,7 @@
         <v>35064</v>
       </c>
       <c r="B10">
-        <v>1.577902519167562</v>
+        <v>1.584368476884657</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -474,7 +474,7 @@
         <v>35430</v>
       </c>
       <c r="B11">
-        <v>1.064797654749472</v>
+        <v>1.064474836623308</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -482,7 +482,7 @@
         <v>35795</v>
       </c>
       <c r="B12">
-        <v>1.937118661020909</v>
+        <v>1.929871341910538</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -490,7 +490,7 @@
         <v>36160</v>
       </c>
       <c r="B13">
-        <v>1.88395368613854</v>
+        <v>1.886792452830188</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -498,7 +498,7 @@
         <v>36525</v>
       </c>
       <c r="B14">
-        <v>1.983948635634003</v>
+        <v>1.983439245137664</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -506,7 +506,7 @@
         <v>36891</v>
       </c>
       <c r="B15">
-        <v>3.110047846889974</v>
+        <v>3.109264853977822</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -514,7 +514,7 @@
         <v>37256</v>
       </c>
       <c r="B16">
-        <v>1.749297838563924</v>
+        <v>1.767183494078894</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -522,7 +522,7 @@
         <v>37621</v>
       </c>
       <c r="B17">
-        <v>-0.1860241831437959</v>
+        <v>-0.2039408571514301</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -530,7 +530,7 @@
         <v>37986</v>
       </c>
       <c r="B18">
-        <v>-0.5440827246220303</v>
+        <v>-0.5379413974455294</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -538,7 +538,7 @@
         <v>38352</v>
       </c>
       <c r="B19">
-        <v>0.7042253521126973</v>
+        <v>0.6949480299734079</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -546,7 +546,7 @@
         <v>38717</v>
       </c>
       <c r="B20">
-        <v>1.047450403673555</v>
+        <v>1.056232371121646</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -554,7 +554,7 @@
         <v>39082</v>
       </c>
       <c r="B21">
-        <v>4.045384341214242</v>
+        <v>4.038244551339143</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -562,7 +562,7 @@
         <v>39447</v>
       </c>
       <c r="B22">
-        <v>2.991721381672874</v>
+        <v>2.996746389634097</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -570,7 +570,7 @@
         <v>39813</v>
       </c>
       <c r="B23">
-        <v>0.6402793946449714</v>
+        <v>0.6207049434715506</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -578,7 +578,7 @@
         <v>40178</v>
       </c>
       <c r="B24">
-        <v>-5.494505494505509</v>
+        <v>-5.499559374311536</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -586,7 +586,7 @@
         <v>40543</v>
       </c>
       <c r="B25">
-        <v>4.007110800256442</v>
+        <v>4.006994025936184</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -594,7 +594,7 @@
         <v>40908</v>
       </c>
       <c r="B26">
-        <v>3.838717812211057</v>
+        <v>3.833006444382181</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -602,7 +602,7 @@
         <v>41274</v>
       </c>
       <c r="B27">
-        <v>0.6503143635824049</v>
+        <v>0.6530303848022223</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -610,7 +610,7 @@
         <v>41639</v>
       </c>
       <c r="B28">
-        <v>0.5067024128686759</v>
+        <v>0.5093833780160928</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -618,7 +618,7 @@
         <v>42004</v>
       </c>
       <c r="B29">
-        <v>2.168636133265789</v>
+        <v>2.173913043478248</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -626,7 +626,7 @@
         <v>42369</v>
       </c>
       <c r="B30">
-        <v>1.404626390266817</v>
+        <v>1.417569507897132</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -634,7 +634,7 @@
         <v>42735</v>
       </c>
       <c r="B31">
-        <v>2.21421215242017</v>
+        <v>2.136532125205948</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -642,7 +642,7 @@
         <v>43100</v>
       </c>
       <c r="B32">
-        <v>3.002518891687656</v>
+        <v>3.094914058168241</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -650,7 +650,7 @@
         <v>43465</v>
       </c>
       <c r="B33">
-        <v>1.13469627310967</v>
+        <v>1.151420329536013</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -658,7 +658,7 @@
         <v>43830</v>
       </c>
       <c r="B34">
-        <v>1.027662249734007</v>
+        <v>1.010223070788152</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -666,7 +666,7 @@
         <v>44196</v>
       </c>
       <c r="B35">
-        <v>-4.45657116871303</v>
+        <v>-4.486182557722218</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -674,7 +674,7 @@
         <v>44561</v>
       </c>
       <c r="B36">
-        <v>3.624840301610766</v>
+        <v>3.865230460921842</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -682,7 +682,7 @@
         <v>44926</v>
       </c>
       <c r="B37">
-        <v>1.445631678189807</v>
+        <v>1.886018860188643</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -690,7 +690,7 @@
         <v>45291</v>
       </c>
       <c r="B38">
-        <v>-0.06434086359737856</v>
+        <v>-0.6770031956444766</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -698,7 +698,7 @@
         <v>45657</v>
       </c>
       <c r="B39">
-        <v>-0.2026849798507313</v>
+        <v>-0.4695059462808793</v>
       </c>
     </row>
   </sheetData>
